--- a/Code/Results/Cases/Case_3_247/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_247/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.02233773608367</v>
+        <v>12.65427347373088</v>
       </c>
       <c r="C2">
-        <v>14.49163348888815</v>
+        <v>8.344836826775365</v>
       </c>
       <c r="D2">
-        <v>10.30159868398691</v>
+        <v>12.012965196457</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>20.91310221041739</v>
+        <v>26.97652056924061</v>
       </c>
       <c r="G2">
-        <v>20.47489940064107</v>
+        <v>23.29348078567289</v>
       </c>
       <c r="H2">
-        <v>7.698855820089663</v>
+        <v>12.79410509837156</v>
       </c>
       <c r="I2">
-        <v>10.03024830828978</v>
+        <v>17.39621189606612</v>
       </c>
       <c r="J2">
-        <v>8.309838342161344</v>
+        <v>11.2541287738502</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.68028119875347</v>
+        <v>16.01916465888374</v>
       </c>
       <c r="O2">
-        <v>12.6245160955287</v>
+        <v>18.75932125869748</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.73233151127276</v>
+        <v>12.05982313196583</v>
       </c>
       <c r="C3">
-        <v>13.60205605076716</v>
+        <v>7.846818874029967</v>
       </c>
       <c r="D3">
-        <v>9.807958266960609</v>
+        <v>11.93121086638853</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.20142001962436</v>
+        <v>26.94930551006954</v>
       </c>
       <c r="G3">
-        <v>19.6235149060524</v>
+        <v>23.23616245126769</v>
       </c>
       <c r="H3">
-        <v>7.686826402094743</v>
+        <v>12.83295452102592</v>
       </c>
       <c r="I3">
-        <v>10.21314130153788</v>
+        <v>17.49644792272704</v>
       </c>
       <c r="J3">
-        <v>8.023542353729932</v>
+        <v>11.23320048125566</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.69542916261683</v>
+        <v>16.03961755552672</v>
       </c>
       <c r="O3">
-        <v>12.42377387008272</v>
+        <v>18.80309558906082</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.89308558589592</v>
+        <v>11.67978812193205</v>
       </c>
       <c r="C4">
-        <v>13.02481464865745</v>
+        <v>7.522956823737785</v>
       </c>
       <c r="D4">
-        <v>9.496895885442092</v>
+        <v>11.88308798599628</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>19.77198292811472</v>
+        <v>26.94042887965885</v>
       </c>
       <c r="G4">
-        <v>19.10907515680211</v>
+        <v>23.21049007013245</v>
       </c>
       <c r="H4">
-        <v>7.685625840379634</v>
+        <v>12.85919712544585</v>
       </c>
       <c r="I4">
-        <v>10.336145042468</v>
+        <v>17.56198020200425</v>
       </c>
       <c r="J4">
-        <v>7.847967132705505</v>
+        <v>11.22262592083332</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.70829227044256</v>
+        <v>16.05384375254147</v>
       </c>
       <c r="O4">
-        <v>12.31244751918029</v>
+        <v>18.83490592589779</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.53920426693226</v>
+        <v>11.52132449386295</v>
       </c>
       <c r="C5">
-        <v>12.78181158756866</v>
+        <v>7.386466985174074</v>
       </c>
       <c r="D5">
-        <v>9.368301636648562</v>
+        <v>11.8640162211613</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>19.59912071321119</v>
+        <v>26.93878405492825</v>
       </c>
       <c r="G5">
-        <v>18.90185891133728</v>
+        <v>23.20242815961331</v>
       </c>
       <c r="H5">
-        <v>7.686637769912623</v>
+        <v>12.87049115142452</v>
       </c>
       <c r="I5">
-        <v>10.38881929179158</v>
+        <v>17.58968681410518</v>
       </c>
       <c r="J5">
-        <v>7.776570496683985</v>
+        <v>11.21889192026213</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.71441103581516</v>
+        <v>16.06006128543374</v>
       </c>
       <c r="O5">
-        <v>12.27004372094158</v>
+        <v>18.84910549350425</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.47972455587048</v>
+        <v>11.49480052143988</v>
       </c>
       <c r="C6">
-        <v>12.7409929309381</v>
+        <v>7.363531483694705</v>
       </c>
       <c r="D6">
-        <v>9.346843360597417</v>
+        <v>11.86088238521692</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>19.57055330607451</v>
+        <v>26.93863010861232</v>
       </c>
       <c r="G6">
-        <v>18.86760710444464</v>
+        <v>23.20123451998855</v>
       </c>
       <c r="H6">
-        <v>7.686894863375978</v>
+        <v>12.87240272872975</v>
       </c>
       <c r="I6">
-        <v>10.39771582274368</v>
+        <v>17.59434795032244</v>
       </c>
       <c r="J6">
-        <v>7.76472730832267</v>
+        <v>11.21830671320788</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.71547947882169</v>
+        <v>16.06111910677415</v>
       </c>
       <c r="O6">
-        <v>12.26318021385558</v>
+        <v>18.85153789109537</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.88836114571159</v>
+        <v>11.67766532060809</v>
       </c>
       <c r="C7">
-        <v>13.02156884101643</v>
+        <v>7.521134299237757</v>
       </c>
       <c r="D7">
-        <v>9.495168800666121</v>
+        <v>11.882828574507</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>19.76964267205671</v>
+        <v>26.94039870832771</v>
       </c>
       <c r="G7">
-        <v>19.1062703085332</v>
+        <v>23.21037162302777</v>
       </c>
       <c r="H7">
-        <v>7.685633481769992</v>
+        <v>12.85934701248016</v>
       </c>
       <c r="I7">
-        <v>10.33684528440551</v>
+        <v>17.56234980843773</v>
       </c>
       <c r="J7">
-        <v>7.847003503456337</v>
+        <v>11.22257323011225</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.70837126393835</v>
+        <v>16.05392590177537</v>
       </c>
       <c r="O7">
-        <v>12.31186370925857</v>
+        <v>18.83509242456364</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.58732087293019</v>
+        <v>12.45253126214907</v>
       </c>
       <c r="C8">
-        <v>14.19136339437641</v>
+        <v>8.176888587629479</v>
       </c>
       <c r="D8">
-        <v>10.13313806210497</v>
+        <v>11.98435619450281</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20.66629168437309</v>
+        <v>26.96551310248116</v>
       </c>
       <c r="G8">
-        <v>20.17980947722499</v>
+        <v>23.27174571611152</v>
       </c>
       <c r="H8">
-        <v>7.69339195119441</v>
+        <v>12.80700411669117</v>
       </c>
       <c r="I8">
-        <v>10.09099779337408</v>
+        <v>17.42994524863426</v>
       </c>
       <c r="J8">
-        <v>8.211136407583103</v>
+        <v>11.24644237463988</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.6847533894655</v>
+        <v>16.02587110066818</v>
       </c>
       <c r="O8">
-        <v>12.55280515912746</v>
+        <v>18.77338869432563</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.54597211734939</v>
+        <v>13.84591383624992</v>
       </c>
       <c r="C9">
-        <v>16.23840906926135</v>
+        <v>9.318410964498693</v>
       </c>
       <c r="D9">
-        <v>11.31486377458434</v>
+        <v>12.19912531249973</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>22.4744142902262</v>
+        <v>27.07672144279875</v>
       </c>
       <c r="G9">
-        <v>22.33760467390673</v>
+        <v>23.46723115444847</v>
       </c>
       <c r="H9">
-        <v>7.760052486450143</v>
+        <v>12.72334768997851</v>
       </c>
       <c r="I9">
-        <v>9.700913216181069</v>
+        <v>17.20197487269365</v>
       </c>
       <c r="J9">
-        <v>8.922957298591998</v>
+        <v>11.31115179937256</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.66757820306804</v>
+        <v>15.98405588970303</v>
       </c>
       <c r="O9">
-        <v>13.12106074646506</v>
+        <v>18.69168106159965</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.49467140255303</v>
+        <v>14.78530271093547</v>
       </c>
       <c r="C10">
-        <v>17.59184628296531</v>
+        <v>10.06822720362179</v>
       </c>
       <c r="D10">
-        <v>12.13427504639144</v>
+        <v>12.36536657961192</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>23.82103154495441</v>
+        <v>27.19581929248173</v>
       </c>
       <c r="G10">
-        <v>23.93930438741686</v>
+        <v>23.65585332623706</v>
       </c>
       <c r="H10">
-        <v>7.84352679259486</v>
+        <v>12.67350452445191</v>
       </c>
       <c r="I10">
-        <v>9.481166184372325</v>
+        <v>17.05385061053497</v>
       </c>
       <c r="J10">
-        <v>9.43997334747878</v>
+        <v>11.36937376489043</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.67397404958008</v>
+        <v>15.9613347613916</v>
       </c>
       <c r="O10">
-        <v>13.59778336740767</v>
+        <v>18.65579350227019</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.33295086180794</v>
+        <v>15.1931737343152</v>
       </c>
       <c r="C11">
-        <v>18.17506758494068</v>
+        <v>10.3899726267745</v>
       </c>
       <c r="D11">
-        <v>12.49549289900375</v>
+        <v>12.44258125977984</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>24.43545425783806</v>
+        <v>27.25800054214475</v>
       </c>
       <c r="G11">
-        <v>24.66891200111161</v>
+        <v>23.75118849635573</v>
       </c>
       <c r="H11">
-        <v>7.889629900997786</v>
+        <v>12.65336129681963</v>
       </c>
       <c r="I11">
-        <v>9.398348183660179</v>
+        <v>16.99068359648017</v>
       </c>
       <c r="J11">
-        <v>9.673113348612317</v>
+        <v>11.39812006380566</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.68129531694922</v>
+        <v>15.95272535065847</v>
       </c>
       <c r="O11">
-        <v>13.82753429255202</v>
+        <v>18.64474181368699</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.643510922498</v>
+        <v>15.34474923295887</v>
       </c>
       <c r="C12">
-        <v>18.39127399712549</v>
+        <v>10.50902502723185</v>
       </c>
       <c r="D12">
-        <v>12.63056185207657</v>
+        <v>12.47202768388509</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>24.66823948896852</v>
+        <v>27.28268480310896</v>
       </c>
       <c r="G12">
-        <v>24.94517104141752</v>
+        <v>23.78863411693295</v>
       </c>
       <c r="H12">
-        <v>7.908306652287892</v>
+        <v>12.64609815679345</v>
       </c>
       <c r="I12">
-        <v>9.369692439213702</v>
+        <v>16.96737145448267</v>
       </c>
       <c r="J12">
-        <v>9.761051610389616</v>
+        <v>11.40932487075061</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.68472625317451</v>
+        <v>15.94971256892199</v>
       </c>
       <c r="O12">
-        <v>13.91638098954747</v>
+        <v>18.64131706508707</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.57693129346625</v>
+        <v>15.31223376138817</v>
       </c>
       <c r="C13">
-        <v>18.34491634030763</v>
+        <v>10.48350887297176</v>
       </c>
       <c r="D13">
-        <v>12.60154941904361</v>
+        <v>12.46567701842497</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>24.61810189927202</v>
+        <v>27.27731824209706</v>
       </c>
       <c r="G13">
-        <v>24.88567721684013</v>
+        <v>23.78051019598363</v>
       </c>
       <c r="H13">
-        <v>7.904229320117655</v>
+        <v>12.64764617392336</v>
       </c>
       <c r="I13">
-        <v>9.375739641859083</v>
+        <v>16.97236508046019</v>
       </c>
       <c r="J13">
-        <v>9.742128664902445</v>
+        <v>11.40689761679346</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.68395765905614</v>
+        <v>15.95035043544814</v>
       </c>
       <c r="O13">
-        <v>13.89716436471615</v>
+        <v>18.64202080632506</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.35863836128042</v>
+        <v>15.20570198667854</v>
       </c>
       <c r="C14">
-        <v>18.19294800140745</v>
+        <v>10.39982297493372</v>
       </c>
       <c r="D14">
-        <v>12.50663977459847</v>
+        <v>12.44499981434524</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>24.45460405061525</v>
+        <v>27.26000861480079</v>
       </c>
       <c r="G14">
-        <v>24.69164138066027</v>
+        <v>23.75424239008152</v>
       </c>
       <c r="H14">
-        <v>7.891141751749823</v>
+        <v>12.65275644136408</v>
       </c>
       <c r="I14">
-        <v>9.395935001954461</v>
+        <v>16.98875350081638</v>
       </c>
       <c r="J14">
-        <v>9.680355290486379</v>
+        <v>11.3990355279533</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.6815642432948</v>
+        <v>15.95247253372755</v>
       </c>
       <c r="O14">
-        <v>13.83480684360487</v>
+        <v>18.64444481091265</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.22403350953787</v>
+        <v>15.14007152949251</v>
       </c>
       <c r="C15">
-        <v>18.09925859246616</v>
+        <v>10.3482001337722</v>
       </c>
       <c r="D15">
-        <v>12.4482799190522</v>
+        <v>12.43236072114965</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>24.35446816817756</v>
+        <v>27.24955368970942</v>
       </c>
       <c r="G15">
-        <v>24.57278088766347</v>
+        <v>23.73832683297978</v>
       </c>
       <c r="H15">
-        <v>7.883285357030648</v>
+        <v>12.65593413926012</v>
       </c>
       <c r="I15">
-        <v>9.408664992721421</v>
+        <v>16.99887109018781</v>
       </c>
       <c r="J15">
-        <v>9.642470801571701</v>
+        <v>11.39426115927149</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.6801846962527</v>
+        <v>15.95380457506106</v>
       </c>
       <c r="O15">
-        <v>13.79685104509509</v>
+        <v>18.64602864465021</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.43892243985616</v>
+        <v>14.75824878879097</v>
       </c>
       <c r="C16">
-        <v>17.55307983038232</v>
+        <v>10.04681068113161</v>
       </c>
       <c r="D16">
-        <v>12.11043118124933</v>
+        <v>12.3603505677308</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>23.78090133994705</v>
+        <v>27.19191555100832</v>
       </c>
       <c r="G16">
-        <v>23.89162728813484</v>
+        <v>23.64981255495909</v>
       </c>
       <c r="H16">
-        <v>7.8406817120301</v>
+        <v>12.67487192099282</v>
       </c>
       <c r="I16">
-        <v>9.486943712800079</v>
+        <v>17.05806368907112</v>
       </c>
       <c r="J16">
-        <v>9.424691137787287</v>
+        <v>11.36754012628791</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.67358640849316</v>
+        <v>15.96193207614801</v>
       </c>
       <c r="O16">
-        <v>13.58302730270604</v>
+        <v>18.6566220527477</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.94497435372872</v>
+        <v>14.51896841600656</v>
       </c>
       <c r="C17">
-        <v>17.20971527745317</v>
+        <v>9.856958884299807</v>
       </c>
       <c r="D17">
-        <v>11.90017103219568</v>
+        <v>12.3165666503839</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>23.42939415299595</v>
+        <v>27.15859733033287</v>
       </c>
       <c r="G17">
-        <v>23.47388130617876</v>
+        <v>23.59793519615445</v>
       </c>
       <c r="H17">
-        <v>7.816663842284127</v>
+        <v>12.68713835510837</v>
       </c>
       <c r="I17">
-        <v>9.539522381098994</v>
+        <v>17.09545726448189</v>
       </c>
       <c r="J17">
-        <v>9.290524482504308</v>
+        <v>11.35172263587186</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.67068545725615</v>
+        <v>15.96735963979547</v>
       </c>
       <c r="O17">
-        <v>13.45514937439768</v>
+        <v>18.66447301663779</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.6563288790824</v>
+        <v>14.37951253712603</v>
       </c>
       <c r="C18">
-        <v>17.00916368530341</v>
+        <v>9.745939837906818</v>
       </c>
       <c r="D18">
-        <v>11.77815143057481</v>
+        <v>12.29153435323008</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>23.22739686939046</v>
+        <v>27.14018776399596</v>
       </c>
       <c r="G18">
-        <v>23.2337053651359</v>
+        <v>23.56899549427239</v>
       </c>
       <c r="H18">
-        <v>7.803611821030569</v>
+        <v>12.69443184057979</v>
       </c>
       <c r="I18">
-        <v>9.571362712823776</v>
+        <v>17.11736173442349</v>
       </c>
       <c r="J18">
-        <v>9.21316453286242</v>
+        <v>11.34283801564721</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.66943067373713</v>
+        <v>15.97064399420842</v>
       </c>
       <c r="O18">
-        <v>13.38281116832687</v>
+        <v>18.66948498668993</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.55781728452102</v>
+        <v>14.33198379057749</v>
       </c>
       <c r="C19">
-        <v>16.94073470306518</v>
+        <v>9.708038028688753</v>
       </c>
       <c r="D19">
-        <v>11.73665361358778</v>
+        <v>12.28308545142623</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>23.15903998221255</v>
+        <v>27.13408450901221</v>
       </c>
       <c r="G19">
-        <v>23.1524089824052</v>
+        <v>23.55935211923921</v>
       </c>
       <c r="H19">
-        <v>7.7993220417345</v>
+        <v>12.69694216943049</v>
       </c>
       <c r="I19">
-        <v>9.582410789895373</v>
+        <v>17.1248462916171</v>
       </c>
       <c r="J19">
-        <v>9.186940749457012</v>
+        <v>11.33986662258724</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.66907616773198</v>
+        <v>15.97178396642271</v>
       </c>
       <c r="O19">
-        <v>13.35852736173119</v>
+        <v>18.6712671278589</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.9980254384364</v>
+        <v>14.54463003321805</v>
       </c>
       <c r="C20">
-        <v>17.24658331202026</v>
+        <v>9.877357463307522</v>
       </c>
       <c r="D20">
-        <v>11.92266619264275</v>
+        <v>12.32121204682275</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>23.46679518439514</v>
+        <v>27.16206614597421</v>
       </c>
       <c r="G20">
-        <v>23.51834202960761</v>
+        <v>23.60336478812437</v>
       </c>
       <c r="H20">
-        <v>7.819141313957314</v>
+        <v>12.68580791828234</v>
       </c>
       <c r="I20">
-        <v>9.533758168302642</v>
+        <v>17.09143558846838</v>
       </c>
       <c r="J20">
-        <v>9.304826909872318</v>
+        <v>11.35338441253506</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.67095127283049</v>
+        <v>15.96676504783317</v>
       </c>
       <c r="O20">
-        <v>13.46863662467509</v>
+        <v>18.66358588713994</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.42294252374568</v>
+        <v>15.23707156886024</v>
       </c>
       <c r="C21">
-        <v>18.23771069866115</v>
+        <v>10.42447916314777</v>
       </c>
       <c r="D21">
-        <v>12.53456399910978</v>
+        <v>12.45106777067589</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>24.5026252087654</v>
+        <v>27.26506211306184</v>
       </c>
       <c r="G21">
-        <v>24.7486363111792</v>
+        <v>23.76192162257011</v>
       </c>
       <c r="H21">
-        <v>7.894952433741084</v>
+        <v>12.65124552929772</v>
       </c>
       <c r="I21">
-        <v>9.389927713226543</v>
+        <v>16.98392331440235</v>
       </c>
       <c r="J21">
-        <v>9.698509398532074</v>
+        <v>11.40133619998852</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.68224917913165</v>
+        <v>15.9518425142087</v>
       </c>
       <c r="O21">
-        <v>13.85307276483047</v>
+        <v>18.64371217501303</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.31414392798667</v>
+        <v>15.67282936113643</v>
       </c>
       <c r="C22">
-        <v>18.8583985786235</v>
+        <v>10.76581862121595</v>
       </c>
       <c r="D22">
-        <v>12.9244544152933</v>
+        <v>12.53713165517757</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>25.18023101666624</v>
+        <v>27.33899917079995</v>
       </c>
       <c r="G22">
-        <v>25.55249354543432</v>
+        <v>23.87336874594208</v>
       </c>
       <c r="H22">
-        <v>7.951623346251744</v>
+        <v>12.63078286373295</v>
       </c>
       <c r="I22">
-        <v>9.311819084625665</v>
+        <v>16.91720158506829</v>
       </c>
       <c r="J22">
-        <v>9.953765802100916</v>
+        <v>11.43453301148844</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.69348317717947</v>
+        <v>15.94353148609637</v>
       </c>
       <c r="O22">
-        <v>14.11507288766697</v>
+        <v>18.63515564566504</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.84214061058658</v>
+        <v>15.44181604570739</v>
       </c>
       <c r="C23">
-        <v>18.52959413969709</v>
+        <v>10.58512526115548</v>
       </c>
       <c r="D23">
-        <v>12.71729431382528</v>
+        <v>12.49109562198607</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>24.81856407036399</v>
+        <v>27.29893638243632</v>
       </c>
       <c r="G23">
-        <v>25.12352491560347</v>
+        <v>23.813181133937</v>
       </c>
       <c r="H23">
-        <v>7.920709340342238</v>
+        <v>12.64150942011057</v>
       </c>
       <c r="I23">
-        <v>9.351969567599703</v>
+        <v>16.95248740476921</v>
       </c>
       <c r="J23">
-        <v>9.817731425524002</v>
+        <v>11.41664734273469</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.68712692138072</v>
+        <v>15.9478356116362</v>
       </c>
       <c r="O23">
-        <v>13.97425826814656</v>
+        <v>18.63931637426667</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.97405558714465</v>
+        <v>14.53303429821034</v>
       </c>
       <c r="C24">
-        <v>17.2299250765305</v>
+        <v>9.868141092388386</v>
       </c>
       <c r="D24">
-        <v>11.91249967143306</v>
+        <v>12.3191114264057</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>23.44988588970392</v>
+        <v>27.16049557117332</v>
       </c>
       <c r="G24">
-        <v>23.49824134879921</v>
+        <v>23.60090731004642</v>
       </c>
       <c r="H24">
-        <v>7.818018897470373</v>
+        <v>12.68640865702922</v>
       </c>
       <c r="I24">
-        <v>9.536359165395787</v>
+        <v>17.09325252237494</v>
       </c>
       <c r="J24">
-        <v>9.298361481590831</v>
+        <v>11.35263247164952</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.67082981298648</v>
+        <v>15.96703335201635</v>
       </c>
       <c r="O24">
-        <v>13.46253536116521</v>
+        <v>18.66398540620601</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.7852895611326</v>
+        <v>13.48332008857521</v>
       </c>
       <c r="C25">
-        <v>15.71110145799442</v>
+        <v>9.025165657012321</v>
       </c>
       <c r="D25">
-        <v>11.00335690752578</v>
+        <v>12.1394580517626</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.98126875793795</v>
+        <v>27.04003527973728</v>
       </c>
       <c r="G25">
-        <v>21.74998090969844</v>
+        <v>23.4063726758324</v>
       </c>
       <c r="H25">
-        <v>7.736181645230198</v>
+        <v>12.74394153584219</v>
       </c>
       <c r="I25">
-        <v>9.795538854429751</v>
+        <v>17.26025043395008</v>
       </c>
       <c r="J25">
-        <v>8.731141547250454</v>
+        <v>11.29175187894579</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.66897843545499</v>
+        <v>15.99395958656353</v>
       </c>
       <c r="O25">
-        <v>12.9569580066797</v>
+        <v>18.70955742920438</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_247/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_247/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.65427347373088</v>
+        <v>20.02233773608374</v>
       </c>
       <c r="C2">
-        <v>8.344836826775365</v>
+        <v>14.49163348888828</v>
       </c>
       <c r="D2">
-        <v>12.012965196457</v>
+        <v>10.30159868398689</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>26.97652056924061</v>
+        <v>20.91310221041729</v>
       </c>
       <c r="G2">
-        <v>23.29348078567289</v>
+        <v>20.47489940064103</v>
       </c>
       <c r="H2">
-        <v>12.79410509837156</v>
+        <v>7.698855820089612</v>
       </c>
       <c r="I2">
-        <v>17.39621189606612</v>
+        <v>10.03024830828969</v>
       </c>
       <c r="J2">
-        <v>11.2541287738502</v>
+        <v>8.309838342161328</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.01916465888374</v>
+        <v>11.68028119875347</v>
       </c>
       <c r="O2">
-        <v>18.75932125869748</v>
+        <v>12.6245160955286</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.05982313196583</v>
+        <v>18.73233151127273</v>
       </c>
       <c r="C3">
-        <v>7.846818874029967</v>
+        <v>13.60205605076717</v>
       </c>
       <c r="D3">
-        <v>11.93121086638853</v>
+        <v>9.807958266960505</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.94930551006954</v>
+        <v>20.20142001962436</v>
       </c>
       <c r="G3">
-        <v>23.23616245126769</v>
+        <v>19.62351490605245</v>
       </c>
       <c r="H3">
-        <v>12.83295452102592</v>
+        <v>7.686826402094754</v>
       </c>
       <c r="I3">
-        <v>17.49644792272704</v>
+        <v>10.21314130153793</v>
       </c>
       <c r="J3">
-        <v>11.23320048125566</v>
+        <v>8.02354235372996</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.03961755552672</v>
+        <v>11.69542916261688</v>
       </c>
       <c r="O3">
-        <v>18.80309558906082</v>
+        <v>12.42377387008278</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.67978812193205</v>
+        <v>17.89308558589594</v>
       </c>
       <c r="C4">
-        <v>7.522956823737785</v>
+        <v>13.02481464865751</v>
       </c>
       <c r="D4">
-        <v>11.88308798599628</v>
+        <v>9.496895885442207</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.94042887965885</v>
+        <v>19.77198292811467</v>
       </c>
       <c r="G4">
-        <v>23.21049007013245</v>
+        <v>19.10907515680186</v>
       </c>
       <c r="H4">
-        <v>12.85919712544585</v>
+        <v>7.685625840379634</v>
       </c>
       <c r="I4">
-        <v>17.56198020200425</v>
+        <v>10.33614504246791</v>
       </c>
       <c r="J4">
-        <v>11.22262592083332</v>
+        <v>7.847967132705545</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.05384375254147</v>
+        <v>11.7082922704425</v>
       </c>
       <c r="O4">
-        <v>18.83490592589779</v>
+        <v>12.31244751918019</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.52132449386295</v>
+        <v>17.53920426693227</v>
       </c>
       <c r="C5">
-        <v>7.386466985174074</v>
+        <v>12.78181158756865</v>
       </c>
       <c r="D5">
-        <v>11.8640162211613</v>
+        <v>9.368301636648546</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.93878405492825</v>
+        <v>19.59912071321121</v>
       </c>
       <c r="G5">
-        <v>23.20242815961331</v>
+        <v>18.90185891133733</v>
       </c>
       <c r="H5">
-        <v>12.87049115142452</v>
+        <v>7.686637769912623</v>
       </c>
       <c r="I5">
-        <v>17.58968681410518</v>
+        <v>10.38881929179159</v>
       </c>
       <c r="J5">
-        <v>11.21889192026213</v>
+        <v>7.776570496683985</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.06006128543374</v>
+        <v>11.71441103581515</v>
       </c>
       <c r="O5">
-        <v>18.84910549350425</v>
+        <v>12.27004372094159</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.49480052143988</v>
+        <v>17.47972455587051</v>
       </c>
       <c r="C6">
-        <v>7.363531483694705</v>
+        <v>12.74099293093812</v>
       </c>
       <c r="D6">
-        <v>11.86088238521692</v>
+        <v>9.346843360597463</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.93863010861232</v>
+        <v>19.57055330607444</v>
       </c>
       <c r="G6">
-        <v>23.20123451998855</v>
+        <v>18.86760710444453</v>
       </c>
       <c r="H6">
-        <v>12.87240272872975</v>
+        <v>7.686894863375871</v>
       </c>
       <c r="I6">
-        <v>17.59434795032244</v>
+        <v>10.39771582274359</v>
       </c>
       <c r="J6">
-        <v>11.21830671320788</v>
+        <v>7.764727308322712</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.06111910677415</v>
+        <v>11.71547947882163</v>
       </c>
       <c r="O6">
-        <v>18.85153789109537</v>
+        <v>12.26318021385548</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.67766532060809</v>
+        <v>17.8883611457116</v>
       </c>
       <c r="C7">
-        <v>7.521134299237757</v>
+        <v>13.02156884101638</v>
       </c>
       <c r="D7">
-        <v>11.882828574507</v>
+        <v>9.495168800666132</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.94039870832771</v>
+        <v>19.76964267205671</v>
       </c>
       <c r="G7">
-        <v>23.21037162302777</v>
+        <v>19.10627030853319</v>
       </c>
       <c r="H7">
-        <v>12.85934701248016</v>
+        <v>7.685633481769992</v>
       </c>
       <c r="I7">
-        <v>17.56234980843773</v>
+        <v>10.33684528440552</v>
       </c>
       <c r="J7">
-        <v>11.22257323011225</v>
+        <v>7.847003503456341</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.05392590177537</v>
+        <v>11.70837126393835</v>
       </c>
       <c r="O7">
-        <v>18.83509242456364</v>
+        <v>12.3118637092586</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.45253126214907</v>
+        <v>19.58732087293023</v>
       </c>
       <c r="C8">
-        <v>8.176888587629479</v>
+        <v>14.1913633943764</v>
       </c>
       <c r="D8">
-        <v>11.98435619450281</v>
+        <v>10.13313806210495</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>26.96551310248116</v>
+        <v>20.66629168437308</v>
       </c>
       <c r="G8">
-        <v>23.27174571611152</v>
+        <v>20.17980947722498</v>
       </c>
       <c r="H8">
-        <v>12.80700411669117</v>
+        <v>7.69339195119441</v>
       </c>
       <c r="I8">
-        <v>17.42994524863426</v>
+        <v>10.09099779337409</v>
       </c>
       <c r="J8">
-        <v>11.24644237463988</v>
+        <v>8.211136407583091</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.02587110066818</v>
+        <v>11.6847533894655</v>
       </c>
       <c r="O8">
-        <v>18.77338869432563</v>
+        <v>12.55280515912746</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.84591383624992</v>
+        <v>22.54597211734946</v>
       </c>
       <c r="C9">
-        <v>9.318410964498693</v>
+        <v>16.23840906926141</v>
       </c>
       <c r="D9">
-        <v>12.19912531249973</v>
+        <v>11.31486377458434</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>27.07672144279875</v>
+        <v>22.47441429022608</v>
       </c>
       <c r="G9">
-        <v>23.46723115444847</v>
+        <v>22.33760467390659</v>
       </c>
       <c r="H9">
-        <v>12.72334768997851</v>
+        <v>7.760052486450094</v>
       </c>
       <c r="I9">
-        <v>17.20197487269365</v>
+        <v>9.700913216180973</v>
       </c>
       <c r="J9">
-        <v>11.31115179937256</v>
+        <v>8.922957298591998</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.98405588970303</v>
+        <v>11.66757820306801</v>
       </c>
       <c r="O9">
-        <v>18.69168106159965</v>
+        <v>13.12106074646494</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.78530271093547</v>
+        <v>24.49467140255305</v>
       </c>
       <c r="C10">
-        <v>10.06822720362179</v>
+        <v>17.59184628296531</v>
       </c>
       <c r="D10">
-        <v>12.36536657961192</v>
+        <v>12.13427504639145</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>27.19581929248173</v>
+        <v>23.82103154495446</v>
       </c>
       <c r="G10">
-        <v>23.65585332623706</v>
+        <v>23.93930438741688</v>
       </c>
       <c r="H10">
-        <v>12.67350452445191</v>
+        <v>7.843526792594916</v>
       </c>
       <c r="I10">
-        <v>17.05385061053497</v>
+        <v>9.48116618437235</v>
       </c>
       <c r="J10">
-        <v>11.36937376489043</v>
+        <v>9.439973347478755</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.9613347613916</v>
+        <v>11.67397404958006</v>
       </c>
       <c r="O10">
-        <v>18.65579350227019</v>
+        <v>13.59778336740768</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.1931737343152</v>
+        <v>25.33295086180797</v>
       </c>
       <c r="C11">
-        <v>10.3899726267745</v>
+        <v>18.17506758494065</v>
       </c>
       <c r="D11">
-        <v>12.44258125977984</v>
+        <v>12.49549289900374</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>27.25800054214475</v>
+        <v>24.43545425783802</v>
       </c>
       <c r="G11">
-        <v>23.75118849635573</v>
+        <v>24.66891200111158</v>
       </c>
       <c r="H11">
-        <v>12.65336129681963</v>
+        <v>7.889629900997757</v>
       </c>
       <c r="I11">
-        <v>16.99068359648017</v>
+        <v>9.398348183660156</v>
       </c>
       <c r="J11">
-        <v>11.39812006380566</v>
+        <v>9.67311334861234</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.95272535065847</v>
+        <v>11.68129531694922</v>
       </c>
       <c r="O11">
-        <v>18.64474181368699</v>
+        <v>13.82753429255199</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.34474923295887</v>
+        <v>25.643510922498</v>
       </c>
       <c r="C12">
-        <v>10.50902502723185</v>
+        <v>18.39127399712551</v>
       </c>
       <c r="D12">
-        <v>12.47202768388509</v>
+        <v>12.63056185207657</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>27.28268480310896</v>
+        <v>24.66823948896851</v>
       </c>
       <c r="G12">
-        <v>23.78863411693295</v>
+        <v>24.94517104141756</v>
       </c>
       <c r="H12">
-        <v>12.64609815679345</v>
+        <v>7.908306652287808</v>
       </c>
       <c r="I12">
-        <v>16.96737145448267</v>
+        <v>9.369692439213711</v>
       </c>
       <c r="J12">
-        <v>11.40932487075061</v>
+        <v>9.761051610389593</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.94971256892199</v>
+        <v>11.68472625317451</v>
       </c>
       <c r="O12">
-        <v>18.64131706508707</v>
+        <v>13.91638098954745</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.31223376138817</v>
+        <v>25.57693129346627</v>
       </c>
       <c r="C13">
-        <v>10.48350887297176</v>
+        <v>18.34491634030756</v>
       </c>
       <c r="D13">
-        <v>12.46567701842497</v>
+        <v>12.60154941904359</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>27.27731824209706</v>
+        <v>24.61810189927204</v>
       </c>
       <c r="G13">
-        <v>23.78051019598363</v>
+        <v>24.88567721684018</v>
       </c>
       <c r="H13">
-        <v>12.64764617392336</v>
+        <v>7.904229320117667</v>
       </c>
       <c r="I13">
-        <v>16.97236508046019</v>
+        <v>9.375739641859107</v>
       </c>
       <c r="J13">
-        <v>11.40689761679346</v>
+        <v>9.742128664902435</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.95035043544814</v>
+        <v>11.68395765905613</v>
       </c>
       <c r="O13">
-        <v>18.64202080632506</v>
+        <v>13.89716436471616</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.20570198667854</v>
+        <v>25.35863836128041</v>
       </c>
       <c r="C14">
-        <v>10.39982297493372</v>
+        <v>18.19294800140745</v>
       </c>
       <c r="D14">
-        <v>12.44499981434524</v>
+        <v>12.50663977459849</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>27.26000861480079</v>
+        <v>24.45460405061529</v>
       </c>
       <c r="G14">
-        <v>23.75424239008152</v>
+        <v>24.69164138066028</v>
       </c>
       <c r="H14">
-        <v>12.65275644136408</v>
+        <v>7.891141751749831</v>
       </c>
       <c r="I14">
-        <v>16.98875350081638</v>
+        <v>9.39593500195447</v>
       </c>
       <c r="J14">
-        <v>11.3990355279533</v>
+        <v>9.680355290486382</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.95247253372755</v>
+        <v>11.68156424329477</v>
       </c>
       <c r="O14">
-        <v>18.64444481091265</v>
+        <v>13.83480684360489</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.14007152949251</v>
+        <v>25.22403350953787</v>
       </c>
       <c r="C15">
-        <v>10.3482001337722</v>
+        <v>18.09925859246618</v>
       </c>
       <c r="D15">
-        <v>12.43236072114965</v>
+        <v>12.44827991905222</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>27.24955368970942</v>
+        <v>24.35446816817755</v>
       </c>
       <c r="G15">
-        <v>23.73832683297978</v>
+        <v>24.57278088766343</v>
       </c>
       <c r="H15">
-        <v>12.65593413926012</v>
+        <v>7.883285357030613</v>
       </c>
       <c r="I15">
-        <v>16.99887109018781</v>
+        <v>9.408664992721373</v>
       </c>
       <c r="J15">
-        <v>11.39426115927149</v>
+        <v>9.642470801571704</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.95380457506106</v>
+        <v>11.68018469625268</v>
       </c>
       <c r="O15">
-        <v>18.64602864465021</v>
+        <v>13.79685104509505</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.75824878879097</v>
+        <v>24.43892243985622</v>
       </c>
       <c r="C16">
-        <v>10.04681068113161</v>
+        <v>17.55307983038232</v>
       </c>
       <c r="D16">
-        <v>12.3603505677308</v>
+        <v>12.11043118124934</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>27.19191555100832</v>
+        <v>23.780901339947</v>
       </c>
       <c r="G16">
-        <v>23.64981255495909</v>
+        <v>23.89162728813477</v>
       </c>
       <c r="H16">
-        <v>12.67487192099282</v>
+        <v>7.840681712030063</v>
       </c>
       <c r="I16">
-        <v>17.05806368907112</v>
+        <v>9.486943712799885</v>
       </c>
       <c r="J16">
-        <v>11.36754012628791</v>
+        <v>9.424691137787274</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.96193207614801</v>
+        <v>11.67358640849307</v>
       </c>
       <c r="O16">
-        <v>18.6566220527477</v>
+        <v>13.58302730270593</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.51896841600656</v>
+        <v>23.94497435372872</v>
       </c>
       <c r="C17">
-        <v>9.856958884299807</v>
+        <v>17.20971527745313</v>
       </c>
       <c r="D17">
-        <v>12.3165666503839</v>
+        <v>11.90017103219565</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>27.15859733033287</v>
+        <v>23.42939415299592</v>
       </c>
       <c r="G17">
-        <v>23.59793519615445</v>
+        <v>23.4738813061787</v>
       </c>
       <c r="H17">
-        <v>12.68713835510837</v>
+        <v>7.816663842284115</v>
       </c>
       <c r="I17">
-        <v>17.09545726448189</v>
+        <v>9.539522381098989</v>
       </c>
       <c r="J17">
-        <v>11.35172263587186</v>
+        <v>9.290524482504324</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.96735963979547</v>
+        <v>11.67068545725616</v>
       </c>
       <c r="O17">
-        <v>18.66447301663779</v>
+        <v>13.45514937439766</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.37951253712603</v>
+        <v>23.65632887908246</v>
       </c>
       <c r="C18">
-        <v>9.745939837906818</v>
+        <v>17.00916368530326</v>
       </c>
       <c r="D18">
-        <v>12.29153435323008</v>
+        <v>11.77815143057482</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>27.14018776399596</v>
+        <v>23.22739686939052</v>
       </c>
       <c r="G18">
-        <v>23.56899549427239</v>
+        <v>23.23370536513598</v>
       </c>
       <c r="H18">
-        <v>12.69443184057979</v>
+        <v>7.803611821030583</v>
       </c>
       <c r="I18">
-        <v>17.11736173442349</v>
+        <v>9.571362712823756</v>
       </c>
       <c r="J18">
-        <v>11.34283801564721</v>
+        <v>9.213164532862397</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.97064399420842</v>
+        <v>11.66943067373711</v>
       </c>
       <c r="O18">
-        <v>18.66948498668993</v>
+        <v>13.3828111683269</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.33198379057749</v>
+        <v>23.55781728452115</v>
       </c>
       <c r="C19">
-        <v>9.708038028688753</v>
+        <v>16.94073470306522</v>
       </c>
       <c r="D19">
-        <v>12.28308545142623</v>
+        <v>11.73665361358775</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>27.13408450901221</v>
+        <v>23.15903998221244</v>
       </c>
       <c r="G19">
-        <v>23.55935211923921</v>
+        <v>23.1524089824051</v>
       </c>
       <c r="H19">
-        <v>12.69694216943049</v>
+        <v>7.799322041734421</v>
       </c>
       <c r="I19">
-        <v>17.1248462916171</v>
+        <v>9.582410789895267</v>
       </c>
       <c r="J19">
-        <v>11.33986662258724</v>
+        <v>9.186940749457008</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.97178396642271</v>
+        <v>11.66907616773199</v>
       </c>
       <c r="O19">
-        <v>18.6712671278589</v>
+        <v>13.3585273617311</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.54463003321805</v>
+        <v>23.99802543843631</v>
       </c>
       <c r="C20">
-        <v>9.877357463307522</v>
+        <v>17.24658331202012</v>
       </c>
       <c r="D20">
-        <v>12.32121204682275</v>
+        <v>11.92266619264269</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>27.16206614597421</v>
+        <v>23.46679518439516</v>
       </c>
       <c r="G20">
-        <v>23.60336478812437</v>
+        <v>23.51834202960762</v>
       </c>
       <c r="H20">
-        <v>12.68580791828234</v>
+        <v>7.819141313957437</v>
       </c>
       <c r="I20">
-        <v>17.09143558846838</v>
+        <v>9.533758168302727</v>
       </c>
       <c r="J20">
-        <v>11.35338441253506</v>
+        <v>9.304826909872327</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.96676504783317</v>
+        <v>11.67095127283048</v>
       </c>
       <c r="O20">
-        <v>18.66358588713994</v>
+        <v>13.46863662467515</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.23707156886024</v>
+        <v>25.4229425237457</v>
       </c>
       <c r="C21">
-        <v>10.42447916314777</v>
+        <v>18.2377106986611</v>
       </c>
       <c r="D21">
-        <v>12.45106777067589</v>
+        <v>12.53456399910975</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>27.26506211306184</v>
+        <v>24.50262520876537</v>
       </c>
       <c r="G21">
-        <v>23.76192162257011</v>
+        <v>24.74863631117918</v>
       </c>
       <c r="H21">
-        <v>12.65124552929772</v>
+        <v>7.894952433741008</v>
       </c>
       <c r="I21">
-        <v>16.98392331440235</v>
+        <v>9.389927713226554</v>
       </c>
       <c r="J21">
-        <v>11.40133619998852</v>
+        <v>9.698509398532073</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.9518425142087</v>
+        <v>11.68224917913167</v>
       </c>
       <c r="O21">
-        <v>18.64371217501303</v>
+        <v>13.85307276483047</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.67282936113643</v>
+        <v>26.31414392798666</v>
       </c>
       <c r="C22">
-        <v>10.76581862121595</v>
+        <v>18.85839857862345</v>
       </c>
       <c r="D22">
-        <v>12.53713165517757</v>
+        <v>12.92445441529333</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>27.33899917079995</v>
+        <v>25.18023101666627</v>
       </c>
       <c r="G22">
-        <v>23.87336874594208</v>
+        <v>25.55249354543434</v>
       </c>
       <c r="H22">
-        <v>12.63078286373295</v>
+        <v>7.951623346251719</v>
       </c>
       <c r="I22">
-        <v>16.91720158506829</v>
+        <v>9.311819084625665</v>
       </c>
       <c r="J22">
-        <v>11.43453301148844</v>
+        <v>9.953765802100904</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.94353148609637</v>
+        <v>11.69348317717943</v>
       </c>
       <c r="O22">
-        <v>18.63515564566504</v>
+        <v>14.11507288766698</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.44181604570739</v>
+        <v>25.84214061058659</v>
       </c>
       <c r="C23">
-        <v>10.58512526115548</v>
+        <v>18.52959413969698</v>
       </c>
       <c r="D23">
-        <v>12.49109562198607</v>
+        <v>12.71729431382529</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>27.29893638243632</v>
+        <v>24.818564070364</v>
       </c>
       <c r="G23">
-        <v>23.813181133937</v>
+        <v>25.12352491560354</v>
       </c>
       <c r="H23">
-        <v>12.64150942011057</v>
+        <v>7.920709340342256</v>
       </c>
       <c r="I23">
-        <v>16.95248740476921</v>
+        <v>9.351969567599658</v>
       </c>
       <c r="J23">
-        <v>11.41664734273469</v>
+        <v>9.817731425523988</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.9478356116362</v>
+        <v>11.68712692138065</v>
       </c>
       <c r="O23">
-        <v>18.63931637426667</v>
+        <v>13.97425826814659</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.53303429821034</v>
+        <v>23.97405558714468</v>
       </c>
       <c r="C24">
-        <v>9.868141092388386</v>
+        <v>17.22992507653044</v>
       </c>
       <c r="D24">
-        <v>12.3191114264057</v>
+        <v>11.91249967143306</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>27.16049557117332</v>
+        <v>23.4498858897039</v>
       </c>
       <c r="G24">
-        <v>23.60090731004642</v>
+        <v>23.49824134879919</v>
       </c>
       <c r="H24">
-        <v>12.68640865702922</v>
+        <v>7.818018897470373</v>
       </c>
       <c r="I24">
-        <v>17.09325252237494</v>
+        <v>9.536359165395741</v>
       </c>
       <c r="J24">
-        <v>11.35263247164952</v>
+        <v>9.29836148159082</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.96703335201635</v>
+        <v>11.67082981298649</v>
       </c>
       <c r="O24">
-        <v>18.66398540620601</v>
+        <v>13.4625353611652</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.48332008857521</v>
+        <v>21.7852895611326</v>
       </c>
       <c r="C25">
-        <v>9.025165657012321</v>
+        <v>15.71110145799432</v>
       </c>
       <c r="D25">
-        <v>12.1394580517626</v>
+        <v>11.00335690752573</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>27.04003527973728</v>
+        <v>21.98126875793787</v>
       </c>
       <c r="G25">
-        <v>23.4063726758324</v>
+        <v>21.74998090969839</v>
       </c>
       <c r="H25">
-        <v>12.74394153584219</v>
+        <v>7.736181645230186</v>
       </c>
       <c r="I25">
-        <v>17.26025043395008</v>
+        <v>9.79553885442969</v>
       </c>
       <c r="J25">
-        <v>11.29175187894579</v>
+        <v>8.731141547250457</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.99395958656353</v>
+        <v>11.66897843545497</v>
       </c>
       <c r="O25">
-        <v>18.70955742920438</v>
+        <v>12.95695800667968</v>
       </c>
     </row>
   </sheetData>
